--- a/test/numeric_test.xlsx
+++ b/test/numeric_test.xlsx
@@ -19,28 +19,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">6,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -108,7 +90,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -117,7 +99,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -138,56 +124,71 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.45"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>3666777888</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>-5</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>42767</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>3147483647</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>3147483647</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>-42767</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>-3147483647</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>-3147483647</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/test/numeric_test.xlsx
+++ b/test/numeric_test.xlsx
@@ -90,7 +90,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -101,10 +101,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -124,16 +120,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -146,6 +145,15 @@
       <c r="C1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="D1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -155,6 +163,15 @@
         <v>-5</v>
       </c>
       <c r="C2" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -165,8 +182,17 @@
       <c r="B3" s="1" t="n">
         <v>3147483647</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="1" t="n">
         <v>3147483647</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>5.1234567</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>5.1234567</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>5.1234567</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -179,8 +205,17 @@
       <c r="C4" s="1" t="n">
         <v>-3147483647</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="0" t="n">
+        <v>5.12345678987654</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>5.12345678987654</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>5.12345678987654</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>5.5</v>
       </c>
@@ -189,6 +224,15 @@
       </c>
       <c r="C5" s="0" t="n">
         <v>5.5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>12345678987654300</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>12345678987654300</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>12345678987654300</v>
       </c>
     </row>
   </sheetData>
